--- a/data/Eval L1.xlsx
+++ b/data/Eval L1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Code\progeo_eval1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etter\Desktop\ProGeo\course_eval\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1325A-66B2-4F79-B87F-1934E3D3B4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669A95B-885B-4A97-8961-8C038480B164}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>1.1</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -565,14 +568,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
